--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_2.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_1</t>
+          <t>model_32_2_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997866822797503</v>
+        <v>0.9999945862064608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993767161067156</v>
+        <v>0.9991149222173865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995462864551952</v>
+        <v>0.9999576195722367</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997968558997984</v>
+        <v>0.9999665480492436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996831766173899</v>
+        <v>0.9999861006108001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001991227282873667</v>
+        <v>5.053538630781118e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005818081553800795</v>
+        <v>0.0008261812596451294</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001629588473026171</v>
+        <v>6.068617848569366e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>8.655169320048241e-05</v>
+        <v>2.531545727228943e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001247552702515498</v>
+        <v>1.56920375604294e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009838437664041607</v>
+        <v>0.0001377022346627595</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01411108529799769</v>
+        <v>0.002248007702562675</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00020478501144</v>
+        <v>1.000005197241798</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01471182341310696</v>
+        <v>0.002343710044478235</v>
       </c>
       <c r="P2" t="n">
-        <v>115.0431783965488</v>
+        <v>122.3908436821987</v>
       </c>
       <c r="Q2" t="n">
-        <v>174.7680938150906</v>
+        <v>182.1157591007405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_2</t>
+          <t>model_32_2_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997804635304448</v>
+        <v>0.9999946780321125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993669808905032</v>
+        <v>0.9991143414783008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9991379529257349</v>
+        <v>0.9999572596903402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996360611660254</v>
+        <v>0.999967385225732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994099605007492</v>
+        <v>0.9999863585853849</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002049276577925053</v>
+        <v>4.967823415567385e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005908955523877158</v>
+        <v>0.0008267233540901721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003096186991799863</v>
+        <v>6.120150733340189e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001550599907682985</v>
+        <v>2.468190660805177e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002323393449741424</v>
+        <v>1.540079117430277e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001085514418250348</v>
+        <v>0.0001387413285827493</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01431529454089245</v>
+        <v>0.002228861461726005</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000210755010773</v>
+        <v>1.000005109089172</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01492472626624316</v>
+        <v>0.002323748708530966</v>
       </c>
       <c r="P3" t="n">
-        <v>114.9857070598457</v>
+        <v>122.4250575166706</v>
       </c>
       <c r="Q3" t="n">
-        <v>174.7106224783875</v>
+        <v>182.1499729352124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_0</t>
+          <t>model_32_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997757908784934</v>
+        <v>0.999994773988549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993632530919189</v>
+        <v>0.9991136872593301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998696367258064</v>
+        <v>0.9999568321811317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998913783421354</v>
+        <v>0.9999682832935318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998817815324329</v>
+        <v>0.9999866321432136</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002092893732833312</v>
+        <v>4.878252294103278e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005943752887348</v>
+        <v>0.0008273340387824195</v>
       </c>
       <c r="I4" t="n">
-        <v>4.682216155199155e-05</v>
+        <v>6.181367435251076e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>4.627940657442702e-05</v>
+        <v>2.400227518148441e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.655078406320929e-05</v>
+        <v>1.509195172374334e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008753799615904731</v>
+        <v>0.0001398717376181072</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01446683701723812</v>
+        <v>0.002208676593370627</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000215240756646</v>
+        <v>1.000005016970993</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01508272021954303</v>
+        <v>0.002302704528541261</v>
       </c>
       <c r="P4" t="n">
-        <v>114.9435854049124</v>
+        <v>122.4614470773993</v>
       </c>
       <c r="Q4" t="n">
-        <v>174.6685008234542</v>
+        <v>182.1863624959411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_3</t>
+          <t>model_32_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997668973707907</v>
+        <v>0.9999948769462914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993450080448099</v>
+        <v>0.9991129566508172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.998728987266625</v>
+        <v>0.9999563193917274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994551513269689</v>
+        <v>0.9999692663290811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9991255737608021</v>
+        <v>0.999986929423229</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002175910723439668</v>
+        <v>4.782145760949855e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006114062393460678</v>
+        <v>0.000828016029759178</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004565055910482512</v>
+        <v>6.254795739211727e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002321385417645096</v>
+        <v>2.325834264889009e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003443220664063804</v>
+        <v>1.475633056078932e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00118975056740272</v>
+        <v>0.0001411289844623859</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01475096852223497</v>
+        <v>0.002186811779954977</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000223778524041</v>
+        <v>1.00000491813156</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01537894779094089</v>
+        <v>0.002279908884752104</v>
       </c>
       <c r="P5" t="n">
-        <v>114.8657861433104</v>
+        <v>122.5012424164475</v>
       </c>
       <c r="Q5" t="n">
-        <v>174.5907015618522</v>
+        <v>182.2261578349893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_4</t>
+          <t>model_32_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997502356000538</v>
+        <v>0.999994981482168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993170964579735</v>
+        <v>0.9991121475491691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9983489471673169</v>
+        <v>0.9999556730424312</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992729464922887</v>
+        <v>0.9999703092591077</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9988536782924599</v>
+        <v>0.9999872374631161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002331441039596913</v>
+        <v>4.684566108626636e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006374604804807241</v>
+        <v>0.0008287712906322277</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005930033818264494</v>
+        <v>6.34734900218347e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003097688393475318</v>
+        <v>2.246908372890598e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0004513861105869906</v>
+        <v>1.440856179133396e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001272666436718966</v>
+        <v>0.0001425544129900977</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01526905707500274</v>
+        <v>0.002164385850218633</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000239773823948</v>
+        <v>1.000004817777119</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01591909244599115</v>
+        <v>0.002256528236758809</v>
       </c>
       <c r="P6" t="n">
-        <v>114.727707647287</v>
+        <v>122.5424745188985</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.4526230658288</v>
+        <v>182.2673899374403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_5</t>
+          <t>model_32_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997305120164313</v>
+        <v>0.9999950904008261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992857097449883</v>
+        <v>0.9991112327739942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.997984660517594</v>
+        <v>0.9999549184459706</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9990872286213481</v>
+        <v>0.999971432371895</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9985870668212519</v>
+        <v>0.9999875663354755</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002515552035061292</v>
+        <v>4.582895322351998e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006667585993349327</v>
+        <v>0.000829625193104018</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007238430563442445</v>
+        <v>6.455402596508496e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003888959031979471</v>
+        <v>2.161914484236151e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005563694797710958</v>
+        <v>1.4037273719435e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001345131825533835</v>
+        <v>0.000144094439234779</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01586049190618403</v>
+        <v>0.002140769796674084</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000258708464226</v>
+        <v>1.000004713215207</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0165357058823747</v>
+        <v>0.002231906798922898</v>
       </c>
       <c r="P7" t="n">
-        <v>114.5756961909363</v>
+        <v>122.5863591862376</v>
       </c>
       <c r="Q7" t="n">
-        <v>174.3006116094782</v>
+        <v>182.3112746047795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_6</t>
+          <t>model_32_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997101403139205</v>
+        <v>0.9999952016794852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992533856972106</v>
+        <v>0.9991102189771249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9976479168199331</v>
+        <v>0.9999539612236112</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9989118693943814</v>
+        <v>0.9999726454380687</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9983386207200025</v>
+        <v>0.9999879122004663</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002705712935855614</v>
+        <v>4.479021578633966e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006969316790737334</v>
+        <v>0.0008305715279809274</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008447902165857115</v>
+        <v>6.592470979285447e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0004636095571865984</v>
+        <v>2.07011318656519e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000654199886886155</v>
+        <v>1.364680142246867e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001406129831814611</v>
+        <v>0.0001458528618338867</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01644905144941682</v>
+        <v>0.002116369905908219</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000278265298636</v>
+        <v>1.000004606387694</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01714932162384912</v>
+        <v>0.002206468154292394</v>
       </c>
       <c r="P8" t="n">
-        <v>114.429949864331</v>
+        <v>122.6322118660319</v>
       </c>
       <c r="Q8" t="n">
-        <v>174.1548652828728</v>
+        <v>182.3571272845737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_7</t>
+          <t>model_32_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996857953162448</v>
+        <v>0.9999953141044988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992189743794342</v>
+        <v>0.9991090603734805</v>
       </c>
       <c r="D9" t="n">
-        <v>0.997296021705675</v>
+        <v>0.9999528857050791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9987264584689771</v>
+        <v>0.999973927452561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9980778222116864</v>
+        <v>0.99998827367202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002932962802938817</v>
+        <v>4.374077763317711e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007290531337356532</v>
+        <v>0.0008316530336262007</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000971179262818809</v>
+        <v>6.74647864993312e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0005426058436436974</v>
+        <v>1.973094081955871e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0007568942906833829</v>
+        <v>1.323870973474591e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001464540545411218</v>
+        <v>0.0001476821985221991</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01712589502168812</v>
+        <v>0.002091429597982612</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000301636496405</v>
+        <v>1.000004498459681</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01785497982825135</v>
+        <v>0.002180466085824839</v>
       </c>
       <c r="P9" t="n">
-        <v>114.2686545286375</v>
+        <v>122.6796297146629</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.9935699471794</v>
+        <v>182.4045451332047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_8</t>
+          <t>model_32_2_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996578324421762</v>
+        <v>0.9999954223186707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991826080723424</v>
+        <v>0.9991077749348761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.996928448431273</v>
+        <v>0.9999515601486197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9985294042151279</v>
+        <v>0.9999752747603537</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9978035789313067</v>
+        <v>0.9999886411482223</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003193983958086174</v>
+        <v>4.273064583909876e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007629994851094859</v>
+        <v>0.0008328529341391764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001103199383843765</v>
+        <v>6.936290221291568e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006265628933738051</v>
+        <v>1.871133771452944e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0008648828307860552</v>
+        <v>1.282383895984854e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001520897152814904</v>
+        <v>0.0001507121597004137</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01787172056094816</v>
+        <v>0.002067139227026055</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000328480855511</v>
+        <v>1.000004394574076</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01863255670478941</v>
+        <v>0.002155141623488661</v>
       </c>
       <c r="P10" t="n">
-        <v>114.0981426894225</v>
+        <v>122.7263585739964</v>
       </c>
       <c r="Q10" t="n">
-        <v>173.8230581079644</v>
+        <v>182.4512739925382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_9</t>
+          <t>model_32_2_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996352477593464</v>
+        <v>0.9999955221264989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991506851156905</v>
+        <v>0.9991063302040549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9966228306534958</v>
+        <v>0.9999498956431553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9983738749838943</v>
+        <v>0.9999766788658587</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9975800651183884</v>
+        <v>0.9999890061330569</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003404802058771826</v>
+        <v>4.179898357356416e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007927981638881761</v>
+        <v>0.0008342015269444366</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001212967146680062</v>
+        <v>7.174637215489893e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006928277678746264</v>
+        <v>1.764875176317848e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0009528956722179281</v>
+        <v>1.241178087216459e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001558063944500507</v>
+        <v>0.0001553117266620486</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01845210573016485</v>
+        <v>0.002044479972353952</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000350162151027</v>
+        <v>1.000004298758561</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01923765007222258</v>
+        <v>0.002131517717434043</v>
       </c>
       <c r="P11" t="n">
-        <v>113.9703071331675</v>
+        <v>122.7704472562903</v>
       </c>
       <c r="Q11" t="n">
-        <v>173.6952225517093</v>
+        <v>182.4953626748322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_10</t>
+          <t>model_32_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9996127220410638</v>
+        <v>0.9999956071574853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991199277133318</v>
+        <v>0.9991047172873063</v>
       </c>
       <c r="D12" t="n">
-        <v>0.996325810775906</v>
+        <v>0.9999478762845159</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9982275938294151</v>
+        <v>0.9999781095062862</v>
       </c>
       <c r="F12" t="n">
-        <v>0.997365462360295</v>
+        <v>0.9999893576382078</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003615069751292352</v>
+        <v>4.100525663980854e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008215088488961385</v>
+        <v>0.0008357071139303935</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001319646829118954</v>
+        <v>7.463797012324277e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000755152401427496</v>
+        <v>1.656608495917097e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001037399615273225</v>
+        <v>1.201494098574762e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001588807477430843</v>
+        <v>0.0001604334893761183</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01901333676999477</v>
+        <v>0.002024975472439322</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000371786840579</v>
+        <v>1.000004217128814</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01982277387932647</v>
+        <v>0.002111182870578166</v>
       </c>
       <c r="P12" t="n">
-        <v>113.8504584431766</v>
+        <v>122.8087907634905</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.5753738617184</v>
+        <v>182.5337061820323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_11</t>
+          <t>model_32_2_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9995983456008322</v>
+        <v>0.999995672841845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999095456742064</v>
+        <v>0.9991029004467846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9961192078210482</v>
+        <v>0.99994546503273</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9981303260511847</v>
+        <v>0.9999795515496589</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9972186163032216</v>
+        <v>0.9999896881891409</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003749267510326875</v>
+        <v>4.039212197427801e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008443514264230526</v>
+        <v>0.0008374030548073158</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001393851753698431</v>
+        <v>7.809073509004486e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0007965943674571598</v>
+        <v>1.547478873994005e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001095223060577796</v>
+        <v>1.164175784925699e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001600637849206116</v>
+        <v>0.0001660990178495348</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01936302535846833</v>
+        <v>0.002009779141455051</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000385588223201</v>
+        <v>1.000004154071829</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02018734943496651</v>
+        <v>0.002095339600323153</v>
       </c>
       <c r="P13" t="n">
-        <v>113.7775597633057</v>
+        <v>122.838921771286</v>
       </c>
       <c r="Q13" t="n">
-        <v>173.5024751818476</v>
+        <v>182.5638371898278</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9995837818319033</v>
+        <v>0.9999956990566911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990721723408963</v>
+        <v>0.9991008883811895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9959159592610906</v>
+        <v>0.9999424446687321</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9980399796199536</v>
+        <v>0.999980911396719</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9970770395419027</v>
+        <v>0.9999899522557639</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003885213900522356</v>
+        <v>4.014741789332521e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008660863928460539</v>
+        <v>0.0008392812297208859</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001466851890956543</v>
+        <v>8.241571146099986e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0008350874203684167</v>
+        <v>1.444569628442331e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001150971619835509</v>
+        <v>1.134363371526165e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001612463300301901</v>
+        <v>0.0001724902082997606</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01971094594514012</v>
+        <v>0.002003682057945452</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000399569441373</v>
+        <v>1.000004128905577</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02055008172130783</v>
+        <v>0.002088982951345848</v>
       </c>
       <c r="P14" t="n">
-        <v>113.7063246632454</v>
+        <v>122.8510750482647</v>
       </c>
       <c r="Q14" t="n">
-        <v>173.4312400817872</v>
+        <v>182.5759904668066</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_13</t>
+          <t>model_32_2_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9995725692733608</v>
+        <v>0.9999956807245914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999052417881597</v>
+        <v>0.9990985931435643</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9957524043638384</v>
+        <v>0.9999387292363762</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9979721949645279</v>
+        <v>0.9999821840415354</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9969657788064117</v>
+        <v>0.9999901445788856</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003989878212772187</v>
+        <v>4.031853999659275e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008845263134814044</v>
+        <v>0.0008414237332946338</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001525595381936885</v>
+        <v>8.773598317606518e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0008639677899892181</v>
+        <v>1.34825959346985e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001194782663737059</v>
+        <v>1.112650606993537e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001616713994552581</v>
+        <v>0.0001795814919977559</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0199746795037422</v>
+        <v>0.002007947708397625</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000410333497574</v>
+        <v>1.000004146504392</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02082504296350333</v>
+        <v>0.002093430199368884</v>
       </c>
       <c r="P15" t="n">
-        <v>113.65315932931</v>
+        <v>122.8425684765056</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.3780747478518</v>
+        <v>182.5674838950474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_14</t>
+          <t>model_32_2_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9995688790794859</v>
+        <v>0.9999955970623052</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990386703581782</v>
+        <v>0.9990960365400716</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9956689198572364</v>
+        <v>0.9999340973238539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9979482011613877</v>
+        <v>0.9999833019200808</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9969147266564006</v>
+        <v>0.9999902236070897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00040243245527868</v>
+        <v>4.109949071388177e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008973590231463159</v>
+        <v>0.0008438102104332342</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001555580245997625</v>
+        <v>9.436859839246384e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0008741906036768359</v>
+        <v>1.263661816925811e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001214885424837231</v>
+        <v>1.103728534751287e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00160701433235605</v>
+        <v>0.0001875617757354179</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02006071921140117</v>
+        <v>0.00202730093261661</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000413876083694</v>
+        <v>1.000004226820187</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02091474555964409</v>
+        <v>0.002113607330409569</v>
       </c>
       <c r="P16" t="n">
-        <v>113.6359665763201</v>
+        <v>122.8041998418453</v>
       </c>
       <c r="Q16" t="n">
-        <v>173.3608819948619</v>
+        <v>182.5291152603871</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_15</t>
+          <t>model_32_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9995669796333645</v>
+        <v>0.9999954226165596</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990271876406397</v>
+        <v>0.999093170735335</v>
       </c>
       <c r="D17" t="n">
-        <v>0.995606340882129</v>
+        <v>0.9999284537177661</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9979389583036634</v>
+        <v>0.9999840925450292</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9968811863078221</v>
+        <v>0.9999901311711733</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004042055048569551</v>
+        <v>4.272786517653944e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009080776359354802</v>
+        <v>0.000846485313360513</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001578056536965055</v>
+        <v>1.024498968696523e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0008781286210017533</v>
+        <v>1.203829634801691e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001228092578983404</v>
+        <v>1.114164301749107e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001594997539847288</v>
+        <v>0.0001963729006099993</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02010486271669009</v>
+        <v>0.0020670719672169</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00041569955197</v>
+        <v>1.000004394288103</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02096076834534281</v>
+        <v>0.002155071500290184</v>
       </c>
       <c r="P17" t="n">
-        <v>113.6271742678922</v>
+        <v>122.7264887266296</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.352089686434</v>
+        <v>182.4514041451715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_16</t>
+          <t>model_32_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999565785965801</v>
+        <v>0.9999951271106905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990171412479703</v>
+        <v>0.999089939143547</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9955569090262645</v>
+        <v>0.9999214788053377</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9979345367194862</v>
+        <v>0.9999844338462449</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9968562501931121</v>
+        <v>0.9999898032280422</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004053197411314761</v>
+        <v>4.548628275316677e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009174555025067777</v>
+        <v>0.0008495018624440579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001595810819031215</v>
+        <v>1.124375445383688e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008800124837218175</v>
+        <v>1.178000957706832e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001237911651376516</v>
+        <v>1.15118820154526e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001582109713647073</v>
+        <v>0.0002061618321800877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0201325542624744</v>
+        <v>0.002132751339307205</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000416845472831</v>
+        <v>1.000004677973737</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02098963877756056</v>
+        <v>0.002223546979225416</v>
       </c>
       <c r="P18" t="n">
-        <v>113.6216686361225</v>
+        <v>122.6013696968148</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.3465840546644</v>
+        <v>182.3262851153567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_17</t>
+          <t>model_32_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9995667535459857</v>
+        <v>0.9999946804470741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990091367539055</v>
+        <v>0.9990862123159049</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9955340351415823</v>
+        <v>0.999913067148739</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9979424245479404</v>
+        <v>0.999984176368376</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9968500856070688</v>
+        <v>0.99998918348371</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0004044165475009646</v>
+        <v>4.965569154927287e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009249273463594861</v>
+        <v>0.0008529806924592476</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001604026359263189</v>
+        <v>1.244825219171871e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0008766517909539314</v>
+        <v>1.19748612924127e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00124033907510856</v>
+        <v>1.22115567420657e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001566280357887022</v>
+        <v>0.0002167493728089881</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02011011057903374</v>
+        <v>0.002228355706552993</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000415916595854</v>
+        <v>1.000005106770809</v>
       </c>
       <c r="O19" t="n">
-        <v>0.020966239620051</v>
+        <v>0.00232322142231318</v>
       </c>
       <c r="P19" t="n">
-        <v>113.6261303060156</v>
+        <v>122.4259652672353</v>
       </c>
       <c r="Q19" t="n">
-        <v>173.3510457245575</v>
+        <v>182.1508806857771</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_18</t>
+          <t>model_32_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999570215857618</v>
+        <v>0.9999940216210902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990033763468583</v>
+        <v>0.9990821489468882</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9955432142583953</v>
+        <v>0.9999023695590548</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9979617408833705</v>
+        <v>0.9999830641438034</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9968647293485636</v>
+        <v>0.9999881324956086</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004011846315700972</v>
+        <v>5.580554291847858e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009303044334854181</v>
+        <v>0.0008567736690750084</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001600729525143424</v>
+        <v>1.398008155541729e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000868421861872799</v>
+        <v>1.281656029675867e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00123457282164384</v>
+        <v>1.339809411625751e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001547329637607922</v>
+        <v>0.0002289814022604525</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02002959389428795</v>
+        <v>0.002362319684515171</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000412592776687</v>
+        <v>1.000005739243753</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02088229517334307</v>
+        <v>0.002462888524160873</v>
       </c>
       <c r="P20" t="n">
-        <v>113.642177617533</v>
+        <v>122.1924449020958</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.3670930360748</v>
+        <v>181.9173603206376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_19</t>
+          <t>model_32_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9995758727508314</v>
+        <v>0.9999930906244108</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989996228846797</v>
+        <v>0.9990775513700287</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9955791485736388</v>
+        <v>0.9998888908143193</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9979921373356547</v>
+        <v>0.9999808476952974</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9968975549274536</v>
+        <v>0.9999865331769701</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0003959041700643709</v>
+        <v>6.449598825991935e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009338081256711937</v>
+        <v>0.0008610653052630471</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001587823111707587</v>
+        <v>1.591015529924044e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008554711317759396</v>
+        <v>1.449390365593112e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001221647121741764</v>
+        <v>1.520368195803843e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001525328969512986</v>
+        <v>0.000243191713128794</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01989734077871641</v>
+        <v>0.002539606037556206</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000407162159202</v>
+        <v>1.000006633000566</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02074441176883996</v>
+        <v>0.002647722324284209</v>
       </c>
       <c r="P21" t="n">
-        <v>113.6686767415644</v>
+        <v>121.9029852532231</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.3935921601062</v>
+        <v>181.627900671765</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_20</t>
+          <t>model_32_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9995792403487264</v>
+        <v>0.9999918474731782</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989952522200356</v>
+        <v>0.999072430336604</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9955929618435566</v>
+        <v>0.9998721369567329</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9980130462298077</v>
+        <v>0.999977409550793</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9969151612641358</v>
+        <v>0.9999843198009645</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003927606652498455</v>
+        <v>7.61002593364725e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009378879492664112</v>
+        <v>0.0008658455651776398</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001582861843592365</v>
+        <v>1.830920515662092e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0008465626762013144</v>
+        <v>1.709579079039978e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001214714289724018</v>
+        <v>1.770252409531609e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00150791950371174</v>
+        <v>0.0002589995177139065</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01981819026172283</v>
+        <v>0.002758627545292631</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000403929265223</v>
+        <v>1.000007826425749</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0206618916504738</v>
+        <v>0.002876068031041998</v>
       </c>
       <c r="P22" t="n">
-        <v>113.6846202517651</v>
+        <v>121.572087956517</v>
       </c>
       <c r="Q22" t="n">
-        <v>173.4095356703069</v>
+        <v>181.2970033750588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_21</t>
+          <t>model_32_2_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9995818018230135</v>
+        <v>0.9999901991786339</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989909840850305</v>
+        <v>0.9990666010356969</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9956002411504995</v>
+        <v>0.9998512639059511</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9980308502821786</v>
+        <v>0.9999723869342194</v>
       </c>
       <c r="F23" t="n">
-        <v>0.996928118285167</v>
+        <v>0.9999813127277066</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003903696414384872</v>
+        <v>9.1486365389716e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009418720659442474</v>
+        <v>0.0008712869616976988</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001580247358126471</v>
+        <v>2.129809826634512e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0008389770713178755</v>
+        <v>2.089676001302799e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001209612214722173</v>
+        <v>2.109742913968656e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001492540943469203</v>
+        <v>0.0002767136129787115</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01975777420253828</v>
+        <v>0.00302467131089836</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000401470249907</v>
+        <v>1.000009408788511</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02059890355457129</v>
+        <v>0.003153437830536079</v>
       </c>
       <c r="P23" t="n">
-        <v>113.6968329383156</v>
+        <v>121.203811403829</v>
       </c>
       <c r="Q23" t="n">
-        <v>173.4217483568574</v>
+        <v>180.9287268223708</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_22</t>
+          <t>model_32_2_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9995853987933352</v>
+        <v>0.9999880488560977</v>
       </c>
       <c r="C24" t="n">
-        <v>0.998987897539709</v>
+        <v>0.9990600108381879</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9956216109604324</v>
+        <v>0.9998249585758233</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9980530374557594</v>
+        <v>0.9999654531125608</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9969498602111823</v>
+        <v>0.9999773205710492</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0003870120275319999</v>
+        <v>1.11558682382181e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009447532205182387</v>
+        <v>0.0008774386217961329</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001572572031626682</v>
+        <v>2.506486052786536e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000829523991268584</v>
+        <v>2.614407330755989e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001201050915257906</v>
+        <v>2.560446691771263e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001476282433614166</v>
+        <v>0.0002981672350293415</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01967262126743663</v>
+        <v>0.003340040155180489</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000398017158398</v>
+        <v>1.000011473098146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02051012548273148</v>
+        <v>0.003482232579422803</v>
       </c>
       <c r="P24" t="n">
-        <v>113.7141095730468</v>
+        <v>120.8070897982267</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.4390249915886</v>
+        <v>180.5320052167685</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_23</t>
+          <t>model_32_2_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9995892820667261</v>
+        <v>0.9999853017977199</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989853852067401</v>
+        <v>0.9990523379448044</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9956494831945026</v>
+        <v>0.9997915740384464</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9980752817956636</v>
+        <v>0.9999563904891707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9969746158621204</v>
+        <v>0.99997216491771</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0003833871622775409</v>
+        <v>1.3720126651973e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009470983730660347</v>
+        <v>0.0008846009309685082</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001562561250181376</v>
+        <v>2.984532193621453e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000820046554902345</v>
+        <v>3.300240144749134e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001191302903928646</v>
+        <v>3.142506123909607e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001460417929648882</v>
+        <v>0.0003216415727734217</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01958027482640478</v>
+        <v>0.00370406893186034</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000394289215943</v>
+        <v>1.000014110274189</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02041384766252143</v>
+        <v>0.003861758814769369</v>
       </c>
       <c r="P25" t="n">
-        <v>113.7329304236016</v>
+        <v>120.3932934090315</v>
       </c>
       <c r="Q25" t="n">
-        <v>173.4578458421434</v>
+        <v>180.1182088275734</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_32_2_24</t>
+          <t>model_32_2_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9995927963101106</v>
+        <v>0.9999818819822947</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989831989534735</v>
+        <v>0.9990435347157181</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9956745113381212</v>
+        <v>0.9997496041161296</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9980963133250434</v>
+        <v>0.9999450603965051</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9969974084269321</v>
+        <v>0.9999657058921042</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003801067703356343</v>
+        <v>1.691237423883912e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009491391445248603</v>
+        <v>0.0008928183589034572</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001553571971635679</v>
+        <v>3.585515791754084e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0008110858492918436</v>
+        <v>4.157668397153987e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001182327895331201</v>
+        <v>3.871712788692481e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001445749793710801</v>
+        <v>0.0003468290739256107</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01949632709860076</v>
+        <v>0.004112465712785837</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000390915542294</v>
+        <v>1.000017393296997</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02032632610614903</v>
+        <v>0.004287541892156746</v>
       </c>
       <c r="P26" t="n">
-        <v>113.7501167402847</v>
+        <v>119.9749300009677</v>
       </c>
       <c r="Q26" t="n">
-        <v>173.4750321588265</v>
+        <v>179.6998454195095</v>
       </c>
     </row>
   </sheetData>
